--- a/Data/EC/NIT-9006979246.xlsx
+++ b/Data/EC/NIT-9006979246.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6035EB09-D5FD-48BC-A42F-AF4743364B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62D82DB6-D273-4B93-A9D5-6C912807D78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F0039BAA-9643-4E6C-9022-6B61C5209195}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CA4E3985-A249-47B3-A278-BDF52A51A01F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="51">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,60 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1051448203</t>
+  </si>
+  <si>
+    <t>ROMARIO HERRERA YANES</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
     <t>1047382273</t>
   </si>
   <si>
@@ -74,97 +128,34 @@
     <t>2202</t>
   </si>
   <si>
+    <t>1047468655</t>
+  </si>
+  <si>
+    <t>TERESA ALTAMAR AHUMEDO</t>
+  </si>
+  <si>
     <t>1143402281</t>
   </si>
   <si>
     <t>DAVID ENRIQUE CASTRO HURTADO</t>
   </si>
   <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
     <t>2312</t>
   </si>
   <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>1051448203</t>
-  </si>
-  <si>
-    <t>ROMARIO HERRERA YANES</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>1050956415</t>
-  </si>
-  <si>
-    <t>SHIRLY ALVAREZ JULIO</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>1143360326</t>
-  </si>
-  <si>
-    <t>YULIET MEJIA LARA</t>
-  </si>
-  <si>
-    <t>1007972559</t>
-  </si>
-  <si>
-    <t>HELLET ANDREA DE CUENTAS RUIZ</t>
-  </si>
-  <si>
-    <t>1143365529</t>
-  </si>
-  <si>
-    <t>ZULEIMA CONDE BELEÑO</t>
+    <t>1049926352</t>
+  </si>
+  <si>
+    <t>MABEL CAMILA CORTECERO CASSIANI</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -578,7 +569,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9796392B-B1DD-F2EE-68A6-FCE387C805A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F11B5F07-DC59-7A61-4867-6DB6C4E42B1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -929,8 +920,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2544AC-FABE-4F21-BA4C-3DCA4F152CC4}">
-  <dimension ref="B2:J46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E62EC0-AF08-4592-A1B5-B80F6D0C4BC0}">
+  <dimension ref="B2:J50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -941,7 +932,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -954,7 +945,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -999,7 +990,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1031,12 +1022,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1302273</v>
+        <v>1371466</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1047,17 +1038,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F13" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1084,13 +1075,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1107,10 +1098,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>16000</v>
+        <v>52000</v>
       </c>
       <c r="G16" s="18">
-        <v>2000000</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1121,19 +1112,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>43200</v>
+        <v>52000</v>
       </c>
       <c r="G17" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1144,19 +1135,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>48000</v>
+        <v>52000</v>
       </c>
       <c r="G18" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1167,19 +1158,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>48000</v>
+        <v>52000</v>
       </c>
       <c r="G19" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1190,19 +1181,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>48000</v>
+        <v>52000</v>
       </c>
       <c r="G20" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1213,19 +1204,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>27733</v>
+        <v>52000</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1236,19 +1227,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G22" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1259,19 +1250,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F23" s="18">
         <v>52000</v>
       </c>
       <c r="G23" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1282,19 +1273,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F24" s="18">
         <v>52000</v>
       </c>
       <c r="G24" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1305,19 +1296,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
       </c>
       <c r="G25" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1328,19 +1319,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
       </c>
       <c r="G26" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1351,19 +1342,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
       </c>
       <c r="G27" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1374,19 +1365,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
       </c>
       <c r="G28" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1397,19 +1388,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
       </c>
       <c r="G29" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1420,19 +1411,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
       </c>
       <c r="G30" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1443,19 +1434,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>52000</v>
+        <v>27733</v>
       </c>
       <c r="G31" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1466,19 +1457,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
-        <v>52000</v>
+        <v>16000</v>
       </c>
       <c r="G32" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1489,19 +1480,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F33" s="18">
-        <v>52000</v>
+        <v>2133</v>
       </c>
       <c r="G33" s="18">
-        <v>1300000</v>
+        <v>1600000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1512,19 +1503,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F34" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G34" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1535,19 +1526,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F35" s="18">
-        <v>52000</v>
+        <v>48000</v>
       </c>
       <c r="G35" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1558,19 +1549,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D36" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="F36" s="18">
-        <v>80000</v>
+        <v>48000</v>
       </c>
       <c r="G36" s="18">
-        <v>2000000</v>
+        <v>828116</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1581,19 +1572,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F37" s="18">
-        <v>80000</v>
+        <v>48000</v>
       </c>
       <c r="G37" s="18">
-        <v>2000000</v>
+        <v>828116</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1604,19 +1595,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F38" s="18">
-        <v>52000</v>
+        <v>43200</v>
       </c>
       <c r="G38" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1627,75 +1618,167 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>40</v>
-      </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F39" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G39" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F40" s="24">
-        <v>80000</v>
-      </c>
-      <c r="G40" s="24">
-        <v>2000000</v>
-      </c>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="32"/>
-      <c r="H45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="32"/>
-      <c r="H46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="B40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G40" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G41" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G42" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G43" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="24">
+        <v>52000</v>
+      </c>
+      <c r="G44" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="26"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="H49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="32"/>
+      <c r="H50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H49:J49"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9006979246.xlsx
+++ b/Data/EC/NIT-9006979246.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62D82DB6-D273-4B93-A9D5-6C912807D78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9B540D2-D80D-4742-8239-C7162DF553CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CA4E3985-A249-47B3-A278-BDF52A51A01F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BF966B66-583C-42F0-86AE-F8FEA1312DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="50">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,97 +65,94 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047382273</t>
+  </si>
+  <si>
+    <t>XIMENA PATRICIA MEDRANO PEREZ</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>1143402281</t>
+  </si>
+  <si>
+    <t>DAVID ENRIQUE CASTRO HURTADO</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
     <t>1051448203</t>
   </si>
   <si>
     <t>ROMARIO HERRERA YANES</t>
   </si>
   <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>1047382273</t>
-  </si>
-  <si>
-    <t>XIMENA PATRICIA MEDRANO PEREZ</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>1047468655</t>
-  </si>
-  <si>
-    <t>TERESA ALTAMAR AHUMEDO</t>
-  </si>
-  <si>
-    <t>1143402281</t>
-  </si>
-  <si>
-    <t>DAVID ENRIQUE CASTRO HURTADO</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>1049926352</t>
-  </si>
-  <si>
-    <t>MABEL CAMILA CORTECERO CASSIANI</t>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>1002193569</t>
+  </si>
+  <si>
+    <t>GLEIDIS PATRICIA AYOS MERCADO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -254,7 +251,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -267,9 +266,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -469,23 +466,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -513,10 +510,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -569,7 +566,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F11B5F07-DC59-7A61-4867-6DB6C4E42B1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2894B61A-B3A5-E75B-40E8-D0FB941274B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,8 +917,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E62EC0-AF08-4592-A1B5-B80F6D0C4BC0}">
-  <dimension ref="B2:J50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32901B2-181E-483B-A324-743DD2F26A1B}">
+  <dimension ref="B2:J45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -932,7 +929,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -945,7 +942,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -990,7 +987,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1022,12 +1019,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1371466</v>
+        <v>1156783</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1038,17 +1035,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1075,13 +1072,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1098,10 +1095,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>52000</v>
+        <v>16000</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>2000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1112,19 +1109,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>52000</v>
+        <v>43200</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1135,19 +1132,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>52000</v>
+        <v>48000</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1158,19 +1155,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>52000</v>
+        <v>48000</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1181,19 +1178,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>52000</v>
+        <v>48000</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1204,19 +1201,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
-        <v>52000</v>
+        <v>27733</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1227,19 +1224,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1250,19 +1247,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F23" s="18">
         <v>52000</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1273,19 +1270,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1296,19 +1293,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1319,19 +1316,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1342,19 +1339,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1365,19 +1362,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
       </c>
       <c r="G28" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1388,19 +1385,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1411,19 +1408,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
       </c>
       <c r="G30" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1434,19 +1431,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F31" s="18">
-        <v>27733</v>
+        <v>52000</v>
       </c>
       <c r="G31" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1457,19 +1454,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F32" s="18">
-        <v>16000</v>
+        <v>52000</v>
       </c>
       <c r="G32" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1480,19 +1477,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D33" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F33" s="18">
-        <v>2133</v>
+        <v>52000</v>
       </c>
       <c r="G33" s="18">
-        <v>1600000</v>
+        <v>1300000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1503,19 +1500,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F34" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G34" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1526,19 +1523,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D35" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="F35" s="18">
-        <v>48000</v>
+        <v>52000</v>
       </c>
       <c r="G35" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1549,19 +1546,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F36" s="18">
-        <v>48000</v>
+        <v>52000</v>
       </c>
       <c r="G36" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1572,19 +1569,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37" s="18">
-        <v>48000</v>
+        <v>52000</v>
       </c>
       <c r="G37" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1595,190 +1592,75 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F38" s="18">
-        <v>43200</v>
+        <v>52000</v>
       </c>
       <c r="G38" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="16" t="s">
+      <c r="B39" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="E39" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="24">
+        <v>47450</v>
+      </c>
+      <c r="G39" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G44" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="26"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="32" t="s">
+      <c r="B44" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="32"/>
+      <c r="H44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="32"/>
+      <c r="H45" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="32"/>
-      <c r="H49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="32"/>
-      <c r="H50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H44:J44"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
